--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43433,6 +43433,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>51200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43468,6 +43468,43 @@
         <v>51200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,43 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43649,6 +43649,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>33200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,43 @@
         <v>33200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43758,6 +43758,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>42500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,41 @@
         <v>42500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43828,6 +43828,41 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43863,6 +43863,76 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>53600</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>36400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43933,6 +43933,78 @@
         <v>36400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>53700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,43 @@
         <v>53700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44042,6 +44042,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>97900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44114,6 +44114,41 @@
         <v>97900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>38100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44149,6 +44149,76 @@
         <v>38100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>175900</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44219,6 +44219,41 @@
         <v>8300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>192300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,6 +44254,41 @@
         <v>192300</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>126900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88599,6 +88599,41 @@
         <v>126900</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>102200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88634,6 +88634,43 @@
         <v>102200</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88671,6 +88671,41 @@
         </is>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>37800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88706,6 +88706,41 @@
         <v>37800</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>32600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88741,6 +88741,41 @@
         <v>32600</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>102200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88776,6 +88776,41 @@
         <v>102200</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88811,6 +88811,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88846,6 +88846,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88881,6 +88881,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88918,6 +88918,41 @@
         </is>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88953,6 +88953,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88990,6 +88990,41 @@
         </is>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89025,6 +89025,41 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>7900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89060,6 +89060,43 @@
         <v>7900</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2519" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9962.xlsx
+++ b/data/9962.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89097,6 +89097,43 @@
         </is>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>GMUTUAL</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2520" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
